--- a/secondo anno/esami estate.xlsx
+++ b/secondo anno/esami estate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\secondo anno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AEB11B1-DA07-4F12-B004-BA5D0B4E6161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31230475-E5FA-4CCE-8E7B-47749FE3BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A379904D-6F28-4717-BB7D-9CE249CF4646}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A379904D-6F28-4717-BB7D-9CE249CF4646}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>GIUGNO</t>
   </si>
@@ -43,6 +43,27 @@
   </si>
   <si>
     <t>analisi 2</t>
+  </si>
+  <si>
+    <t>misure</t>
+  </si>
+  <si>
+    <t>PIANO 1</t>
+  </si>
+  <si>
+    <t>note: no analisi</t>
+  </si>
+  <si>
+    <t>note: giugno con 3 esami vicini</t>
+  </si>
+  <si>
+    <t>PIANO 2</t>
+  </si>
+  <si>
+    <t>PIANO 3</t>
+  </si>
+  <si>
+    <t>note: automatica il 26 luglio con solo 1 tentativo</t>
   </si>
 </sst>
 </file>
@@ -66,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +124,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -131,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -140,6 +173,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -148,6 +185,11 @@
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{482C6C07-CD77-4CC9-A626-7B115B917D20}"/>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -160,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +242,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +348,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,23 +498,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3121E6-75A5-4660-920D-39C14233352E}">
-  <dimension ref="B4:J18"/>
+  <dimension ref="B4:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G6" s="1">
         <v>1</v>
       </c>
@@ -483,7 +525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -509,14 +551,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
         <v>10</v>
       </c>
       <c r="C8" s="1">
         <v>11</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="8">
         <v>12</v>
       </c>
       <c r="E8" s="1">
@@ -535,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>17</v>
       </c>
@@ -561,8 +603,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
         <v>24</v>
       </c>
       <c r="C10" s="1">
@@ -583,23 +625,26 @@
       <c r="H10" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="8">
         <v>2</v>
       </c>
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <v>4</v>
       </c>
       <c r="F14" s="1">
@@ -612,7 +657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -635,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="5">
         <v>15</v>
       </c>
@@ -648,7 +693,7 @@
       <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>19</v>
       </c>
       <c r="G16" s="1">
@@ -658,7 +703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>22</v>
       </c>
@@ -681,7 +726,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>29</v>
       </c>
@@ -689,6 +734,674 @@
         <v>30</v>
       </c>
       <c r="D18" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>7</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>11</v>
+      </c>
+      <c r="D27" s="10">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1">
+        <v>13</v>
+      </c>
+      <c r="F27" s="1">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>17</v>
+      </c>
+      <c r="C28" s="1">
+        <v>18</v>
+      </c>
+      <c r="D28" s="10">
+        <v>19</v>
+      </c>
+      <c r="E28" s="10">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1">
+        <v>25</v>
+      </c>
+      <c r="D29" s="1">
+        <v>26</v>
+      </c>
+      <c r="E29" s="1">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1">
+        <v>28</v>
+      </c>
+      <c r="G29" s="1">
+        <v>29</v>
+      </c>
+      <c r="H29" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="10">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>5</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6</v>
+      </c>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1">
+        <v>9</v>
+      </c>
+      <c r="D34" s="1">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1">
+        <v>11</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="10">
+        <v>15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <v>18</v>
+      </c>
+      <c r="F35" s="10">
+        <v>19</v>
+      </c>
+      <c r="G35" s="1">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>22</v>
+      </c>
+      <c r="C36" s="1">
+        <v>23</v>
+      </c>
+      <c r="D36" s="1">
+        <v>24</v>
+      </c>
+      <c r="E36" s="1">
+        <v>25</v>
+      </c>
+      <c r="F36" s="10">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1">
+        <v>27</v>
+      </c>
+      <c r="H36" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>29</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30</v>
+      </c>
+      <c r="D37" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1">
+        <v>6</v>
+      </c>
+      <c r="F44" s="1">
+        <v>7</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="4">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>11</v>
+      </c>
+      <c r="D45" s="10">
+        <v>12</v>
+      </c>
+      <c r="E45" s="1">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3">
+        <v>15</v>
+      </c>
+      <c r="H45" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>17</v>
+      </c>
+      <c r="C46" s="1">
+        <v>18</v>
+      </c>
+      <c r="D46" s="10">
+        <v>19</v>
+      </c>
+      <c r="E46" s="7">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1">
+        <v>21</v>
+      </c>
+      <c r="G46" s="1">
+        <v>22</v>
+      </c>
+      <c r="H46" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="9">
+        <v>24</v>
+      </c>
+      <c r="C47" s="1">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1">
+        <v>26</v>
+      </c>
+      <c r="E47" s="1">
+        <v>27</v>
+      </c>
+      <c r="F47" s="1">
+        <v>28</v>
+      </c>
+      <c r="G47" s="1">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="10">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5</v>
+      </c>
+      <c r="G51" s="1">
+        <v>6</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="1">
+        <v>8</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1">
+        <v>11</v>
+      </c>
+      <c r="F52" s="1">
+        <v>12</v>
+      </c>
+      <c r="G52" s="10">
+        <v>13</v>
+      </c>
+      <c r="H52" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>15</v>
+      </c>
+      <c r="C53" s="1">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1">
+        <v>18</v>
+      </c>
+      <c r="F53" s="10">
+        <v>19</v>
+      </c>
+      <c r="G53" s="1">
+        <v>20</v>
+      </c>
+      <c r="H53" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="1">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1">
+        <v>23</v>
+      </c>
+      <c r="D54" s="1">
+        <v>24</v>
+      </c>
+      <c r="E54" s="1">
+        <v>25</v>
+      </c>
+      <c r="F54" s="10">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1">
+        <v>27</v>
+      </c>
+      <c r="H54" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B55" s="1">
+        <v>29</v>
+      </c>
+      <c r="C55" s="1">
+        <v>30</v>
+      </c>
+      <c r="D55" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="1">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1">
+        <v>6</v>
+      </c>
+      <c r="F62" s="1">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1">
+        <v>8</v>
+      </c>
+      <c r="H62" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B63" s="10">
+        <v>10</v>
+      </c>
+      <c r="C63" s="1">
+        <v>11</v>
+      </c>
+      <c r="D63" s="10">
+        <v>12</v>
+      </c>
+      <c r="E63" s="1">
+        <v>13</v>
+      </c>
+      <c r="F63" s="1">
+        <v>14</v>
+      </c>
+      <c r="G63" s="3">
+        <v>15</v>
+      </c>
+      <c r="H63" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B64" s="1">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1">
+        <v>18</v>
+      </c>
+      <c r="D64" s="10">
+        <v>19</v>
+      </c>
+      <c r="E64" s="7">
+        <v>20</v>
+      </c>
+      <c r="F64" s="1">
+        <v>21</v>
+      </c>
+      <c r="G64" s="1">
+        <v>22</v>
+      </c>
+      <c r="H64" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B65" s="9">
+        <v>24</v>
+      </c>
+      <c r="C65" s="1">
+        <v>25</v>
+      </c>
+      <c r="D65" s="1">
+        <v>26</v>
+      </c>
+      <c r="E65" s="1">
+        <v>27</v>
+      </c>
+      <c r="F65" s="1">
+        <v>28</v>
+      </c>
+      <c r="G65" s="1">
+        <v>29</v>
+      </c>
+      <c r="H65" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="8">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="10">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1">
+        <v>6</v>
+      </c>
+      <c r="H69" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="1">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1">
+        <v>11</v>
+      </c>
+      <c r="F70" s="1">
+        <v>12</v>
+      </c>
+      <c r="G70" s="10">
+        <v>13</v>
+      </c>
+      <c r="H70" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="5">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1">
+        <v>18</v>
+      </c>
+      <c r="F71" s="10">
+        <v>19</v>
+      </c>
+      <c r="G71" s="1">
+        <v>20</v>
+      </c>
+      <c r="H71" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B72" s="1">
+        <v>22</v>
+      </c>
+      <c r="C72" s="1">
+        <v>23</v>
+      </c>
+      <c r="D72" s="1">
+        <v>24</v>
+      </c>
+      <c r="E72" s="1">
+        <v>25</v>
+      </c>
+      <c r="F72" s="4">
+        <v>26</v>
+      </c>
+      <c r="G72" s="1">
+        <v>27</v>
+      </c>
+      <c r="H72" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="1">
+        <v>29</v>
+      </c>
+      <c r="C73" s="1">
+        <v>30</v>
+      </c>
+      <c r="D73" s="1">
         <v>31</v>
       </c>
     </row>

--- a/secondo anno/esami estate.xlsx
+++ b/secondo anno/esami estate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomma\Documents\uni\secondo anno\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31230475-E5FA-4CCE-8E7B-47749FE3BA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94E519-EAD0-4D7B-8494-D919DF106548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A379904D-6F28-4717-BB7D-9CE249CF4646}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <t>PIANO 3</t>
   </si>
   <si>
-    <t>note: automatica il 26 luglio con solo 1 tentativo</t>
+    <t>note: automatica il 26 luglio con solo 1 tentativoe poco tempo tra ies e api</t>
   </si>
 </sst>
 </file>
@@ -164,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -176,7 +176,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -500,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC3121E6-75A5-4660-920D-39C14233352E}">
   <dimension ref="B4:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +557,7 @@
       <c r="C8" s="1">
         <v>11</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="10">
         <v>12</v>
       </c>
       <c r="E8" s="1">
@@ -644,7 +643,7 @@
       <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="1">
         <v>4</v>
       </c>
       <c r="F14" s="1">
@@ -737,11 +736,6 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -793,7 +787,7 @@
       <c r="C27" s="1">
         <v>11</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="1">
         <v>12</v>
       </c>
       <c r="E27" s="1">
@@ -816,10 +810,10 @@
       <c r="C28" s="1">
         <v>18</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="1">
         <v>19</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="1">
         <v>20</v>
       </c>
       <c r="F28" s="1">
@@ -870,7 +864,7 @@
       <c r="D33" s="1">
         <v>3</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="1">
         <v>4</v>
       </c>
       <c r="F33" s="1">
@@ -907,7 +901,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="10">
+      <c r="B35" s="1">
         <v>15</v>
       </c>
       <c r="C35" s="1">
@@ -919,7 +913,7 @@
       <c r="E35" s="1">
         <v>18</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="1">
         <v>19</v>
       </c>
       <c r="G35" s="1">
@@ -942,7 +936,7 @@
       <c r="E36" s="1">
         <v>25</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="1">
         <v>26</v>
       </c>
       <c r="G36" s="1">
@@ -1014,7 +1008,7 @@
       <c r="C45" s="1">
         <v>11</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="1">
         <v>12</v>
       </c>
       <c r="E45" s="1">
@@ -1037,7 +1031,7 @@
       <c r="C46" s="1">
         <v>18</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="1">
         <v>19</v>
       </c>
       <c r="E46" s="7">
@@ -1091,7 +1085,7 @@
       <c r="D51" s="1">
         <v>3</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="1">
         <v>4</v>
       </c>
       <c r="F51" s="1">
@@ -1120,7 +1114,7 @@
       <c r="F52" s="1">
         <v>12</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="1">
         <v>13</v>
       </c>
       <c r="H52" s="1">
@@ -1140,7 +1134,7 @@
       <c r="E53" s="1">
         <v>18</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="1">
         <v>19</v>
       </c>
       <c r="G53" s="1">
@@ -1163,7 +1157,7 @@
       <c r="E54" s="1">
         <v>25</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="1">
         <v>26</v>
       </c>
       <c r="G54" s="1">
@@ -1229,13 +1223,13 @@
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B63" s="10">
+      <c r="B63" s="1">
         <v>10</v>
       </c>
       <c r="C63" s="1">
         <v>11</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="1">
         <v>12</v>
       </c>
       <c r="E63" s="1">
@@ -1258,7 +1252,7 @@
       <c r="C64" s="1">
         <v>18</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="1">
         <v>19</v>
       </c>
       <c r="E64" s="7">
@@ -1312,7 +1306,7 @@
       <c r="D69" s="1">
         <v>3</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="1">
         <v>4</v>
       </c>
       <c r="F69" s="1">
@@ -1341,7 +1335,7 @@
       <c r="F70" s="1">
         <v>12</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="1">
         <v>13</v>
       </c>
       <c r="H70" s="1">
@@ -1361,7 +1355,7 @@
       <c r="E71" s="1">
         <v>18</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="1">
         <v>19</v>
       </c>
       <c r="G71" s="1">
